--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -1768,6 +1768,9 @@
       <c r="I45">
         <v>0.2952509178591439</v>
       </c>
+      <c r="J45">
+        <v>0.01855976243503714</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
@@ -1794,6 +1797,9 @@
       <c r="H46">
         <v>0.1470735274266985</v>
       </c>
+      <c r="I46">
+        <v>-0.1296176279974082</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
@@ -1817,6 +1823,9 @@
       <c r="G47">
         <v>-0.01037246157745647</v>
       </c>
+      <c r="H47">
+        <v>-0.2870636170015632</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
@@ -1837,8 +1846,11 @@
       <c r="F48">
         <v>0.4902869949486143</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48">
+        <v>0.2135958395245076</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -1854,8 +1866,11 @@
       <c r="E49">
         <v>0.2099291144131452</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>-0.06676204101096155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -1868,8 +1883,11 @@
       <c r="D50">
         <v>0.3819039722581568</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="E50">
+        <v>0.1052128168340501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -1879,18 +1897,27 @@
       <c r="C51">
         <v>0.07604143251182532</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="D51">
+        <v>-0.2006497229122814</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
         <v>0.6883713851991116</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="C52">
+        <v>0.4116802297750048</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="B53">
+        <v>-0.2766911554241067</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.5825945370336409</v>
+      </c>
+      <c r="C2">
         <v>-0.4869194962242832</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.747338533223006</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.0881164629354852</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-0.01196289696713632</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.3657494030468326</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.2175720126143872</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.06012602361023223</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.560785480136303</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-0.2804275996008339</v>
-      </c>
-      <c r="K2">
-        <v>-0.4524024574458455</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>0.09567504080935779</v>
+      </c>
+      <c r="C3">
         <v>-0.164743996189365</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.6707109999691262</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.5706316400665047</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.2168451339868084</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.3650225244192538</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.5224685134234088</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.02180905689733798</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.3021669374328071</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.1301920795877955</v>
-      </c>
-      <c r="K3">
-        <v>0.436054619334127</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>-0.2604190369987228</v>
+      </c>
+      <c r="C4">
         <v>0.5750359591597685</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.4749565992571469</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.1211700931774507</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.269347483609896</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.426793472614051</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.07386598391201982</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.2064918966234494</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.0345170387784377</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.3403795785247692</v>
-      </c>
-      <c r="K4">
-        <v>-0.271950374162517</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.8354549961584912</v>
+      </c>
+      <c r="C5">
         <v>0.7353756362558697</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.3815891301761735</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.5297665206086188</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.6872125096127738</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.186553053086703</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.4669109336221722</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.2949360757771605</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.600798615523492</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.01153133716379418</v>
-      </c>
-      <c r="K5">
-        <v>0.6768400480353174</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>-0.1000793599026215</v>
+      </c>
+      <c r="C6">
         <v>-0.4538658659823178</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.3056884755498724</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.1482424865457174</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-0.6489019430717882</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.3685440625363191</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.5405189203813308</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.2346563806349992</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.8469863333222853</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.1586149481231739</v>
-      </c>
-      <c r="K6">
-        <v>-0.4353061035472806</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,30 +664,33 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-0.3537865060796963</v>
+      </c>
+      <c r="C7">
         <v>-0.2056091156472509</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.04816312664309591</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.5488225831691667</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.2684647026336975</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.4404395604787092</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.1345770207323777</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.7469069734196638</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.05853558822055238</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.3352267436446591</v>
       </c>
     </row>
@@ -696,27 +699,30 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.1481773904324453</v>
+      </c>
+      <c r="C8">
         <v>0.3056233794366003</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-0.1950360770894705</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.08532180344599868</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.08665305439901295</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.2192094853473185</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.3931204673399676</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.2952509178591439</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.01855976243503714</v>
       </c>
     </row>
@@ -725,24 +731,27 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.157445989004155</v>
+      </c>
+      <c r="C9">
         <v>-0.3432134675219158</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-0.06285558698644665</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-0.2348304448314583</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.0710320949148732</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.541297857772413</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.1470735274266985</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-0.1296176279974082</v>
       </c>
     </row>
@@ -751,21 +760,24 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.5006594565260708</v>
+      </c>
+      <c r="C10">
         <v>-0.2203015759906016</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.3922764338356133</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.0864138940892818</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.698743846776568</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.01037246157745647</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.2870636170015632</v>
       </c>
     </row>
@@ -774,18 +786,21 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.2803578805354692</v>
+      </c>
+      <c r="C11">
         <v>0.1083830226904575</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.414245562436789</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.1980843902504972</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.4902869949486143</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.2135958395245076</v>
       </c>
     </row>
@@ -794,15 +809,18 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-0.1719748578450117</v>
+      </c>
+      <c r="C12">
         <v>0.1338876819013198</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.4784422707859664</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2099291144131452</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.06676204101096155</v>
       </c>
     </row>
@@ -811,12 +829,15 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.3058625397463315</v>
+      </c>
+      <c r="C13">
         <v>-0.3064674129409547</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.3819039722581568</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.1052128168340501</v>
       </c>
     </row>
@@ -825,9 +846,12 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.6123299526872862</v>
+      </c>
+      <c r="C14">
         <v>0.07604143251182532</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.2006497229122814</v>
       </c>
     </row>
@@ -836,12 +860,18 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.6883713851991116</v>
+      </c>
+      <c r="C15">
         <v>0.4116802297750048</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.2766911554241067</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -44,6 +44,117 @@
   </si>
   <si>
     <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -446,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,34 +600,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.5825945370336409</v>
+        <v>0.4174214480787524</v>
       </c>
       <c r="C2">
-        <v>-0.4869194962242832</v>
+        <v>-0.8445681578933891</v>
       </c>
       <c r="D2">
-        <v>-0.747338533223006</v>
+        <v>1.179239969702975</v>
       </c>
       <c r="E2">
-        <v>0.0881164629354852</v>
+        <v>1.207888790514512</v>
       </c>
       <c r="F2">
-        <v>-0.01196289696713632</v>
-      </c>
-      <c r="G2">
-        <v>-0.3657494030468326</v>
-      </c>
-      <c r="H2">
-        <v>-0.2175720126143872</v>
-      </c>
-      <c r="I2">
-        <v>-0.06012602361023223</v>
-      </c>
-      <c r="J2">
-        <v>-0.560785480136303</v>
-      </c>
-      <c r="K2">
-        <v>-0.2804275996008339</v>
+        <v>2.79141761697413</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +620,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.09567504080935779</v>
+        <v>2.023808127596364</v>
       </c>
       <c r="C3">
-        <v>-0.164743996189365</v>
+        <v>2.052456948407901</v>
       </c>
       <c r="D3">
-        <v>0.6707109999691262</v>
+        <v>3.635985774867519</v>
       </c>
       <c r="E3">
-        <v>0.5706316400665047</v>
+        <v>5.328806662809233</v>
       </c>
       <c r="F3">
-        <v>0.2168451339868084</v>
+        <v>1.210523243203278</v>
       </c>
       <c r="G3">
-        <v>0.3650225244192538</v>
+        <v>0.8000055676402342</v>
       </c>
       <c r="H3">
-        <v>0.5224685134234088</v>
-      </c>
-      <c r="I3">
-        <v>0.02180905689733798</v>
-      </c>
-      <c r="J3">
-        <v>0.3021669374328071</v>
-      </c>
-      <c r="K3">
-        <v>0.1301920795877955</v>
+        <v>1.518536236896474</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.2604190369987228</v>
+        <v>1.583528826459618</v>
       </c>
       <c r="C4">
-        <v>0.5750359591597685</v>
+        <v>3.276349714401333</v>
       </c>
       <c r="D4">
-        <v>0.4749565992571469</v>
+        <v>-0.8419337052046232</v>
       </c>
       <c r="E4">
-        <v>0.1211700931774507</v>
+        <v>-1.252451380767666</v>
       </c>
       <c r="F4">
-        <v>0.269347483609896</v>
-      </c>
-      <c r="G4">
-        <v>0.426793472614051</v>
-      </c>
-      <c r="H4">
-        <v>-0.07386598391201982</v>
-      </c>
-      <c r="I4">
-        <v>0.2064918966234494</v>
-      </c>
-      <c r="J4">
-        <v>0.0345170387784377</v>
-      </c>
-      <c r="K4">
-        <v>0.3403795785247692</v>
+        <v>-0.5339207115114269</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +666,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.8354549961584912</v>
+        <v>-4.118283419605956</v>
       </c>
       <c r="C5">
-        <v>0.7353756362558697</v>
+        <v>-4.528801095168999</v>
       </c>
       <c r="D5">
-        <v>0.3815891301761735</v>
+        <v>-3.81027042591276</v>
       </c>
       <c r="E5">
-        <v>0.5297665206086188</v>
+        <v>-3.962113567533486</v>
       </c>
       <c r="F5">
-        <v>0.6872125096127738</v>
+        <v>-5.982853809310154</v>
       </c>
       <c r="G5">
-        <v>0.186553053086703</v>
+        <v>-4.498778175550395</v>
       </c>
       <c r="H5">
-        <v>0.4669109336221722</v>
-      </c>
-      <c r="I5">
-        <v>0.2949360757771605</v>
-      </c>
-      <c r="J5">
-        <v>0.600798615523492</v>
-      </c>
-      <c r="K5">
-        <v>-0.01153133716379418</v>
+        <v>-4.165559092588866</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +692,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1000793599026215</v>
+        <v>0.7185306692562395</v>
       </c>
       <c r="C6">
-        <v>-0.4538658659823178</v>
+        <v>0.5666875276355137</v>
       </c>
       <c r="D6">
-        <v>-0.3056884755498724</v>
+        <v>-1.454052714141154</v>
       </c>
       <c r="E6">
-        <v>-0.1482424865457174</v>
+        <v>0.03002291961860393</v>
       </c>
       <c r="F6">
-        <v>-0.6489019430717882</v>
-      </c>
-      <c r="G6">
-        <v>-0.3685440625363191</v>
-      </c>
-      <c r="H6">
-        <v>-0.5405189203813308</v>
-      </c>
-      <c r="I6">
-        <v>-0.2346563806349992</v>
-      </c>
-      <c r="J6">
-        <v>-0.8469863333222853</v>
-      </c>
-      <c r="K6">
-        <v>-0.1586149481231739</v>
+        <v>0.3632420025801336</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,34 +712,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.3537865060796963</v>
+        <v>-2.020740241776668</v>
       </c>
       <c r="C7">
-        <v>-0.2056091156472509</v>
+        <v>-0.5366646080169097</v>
       </c>
       <c r="D7">
-        <v>-0.04816312664309591</v>
+        <v>-0.2034455250553801</v>
       </c>
       <c r="E7">
-        <v>-0.5488225831691667</v>
+        <v>-1.33783070765155</v>
       </c>
       <c r="F7">
-        <v>-0.2684647026336975</v>
+        <v>0.0421292528262171</v>
       </c>
       <c r="G7">
-        <v>-0.4404395604787092</v>
+        <v>-0.3416665520839498</v>
       </c>
       <c r="H7">
-        <v>-0.1345770207323777</v>
-      </c>
-      <c r="I7">
-        <v>-0.7469069734196638</v>
-      </c>
-      <c r="J7">
-        <v>-0.05853558822055238</v>
-      </c>
-      <c r="K7">
-        <v>-0.3352267436446591</v>
+        <v>0.3432193386903587</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -699,31 +738,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.1481773904324453</v>
+        <v>0.3332190829615296</v>
       </c>
       <c r="C8">
-        <v>0.3056233794366003</v>
+        <v>-0.8011660996346401</v>
       </c>
       <c r="D8">
-        <v>-0.1950360770894705</v>
+        <v>0.5787938608431268</v>
       </c>
       <c r="E8">
-        <v>0.08532180344599868</v>
+        <v>0.1949980559329599</v>
       </c>
       <c r="F8">
-        <v>-0.08665305439901295</v>
-      </c>
-      <c r="G8">
-        <v>0.2192094853473185</v>
-      </c>
-      <c r="H8">
-        <v>-0.3931204673399676</v>
-      </c>
-      <c r="I8">
-        <v>0.2952509178591439</v>
-      </c>
-      <c r="J8">
-        <v>0.01855976243503714</v>
+        <v>0.8798839467072684</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,28 +758,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.157445989004155</v>
+        <v>1.379959960477767</v>
       </c>
       <c r="C9">
-        <v>-0.3432134675219158</v>
+        <v>0.9961641555676001</v>
       </c>
       <c r="D9">
-        <v>-0.06285558698644665</v>
+        <v>1.681050046341908</v>
       </c>
       <c r="E9">
-        <v>-0.2348304448314583</v>
+        <v>0.9890246619602374</v>
       </c>
       <c r="F9">
-        <v>0.0710320949148732</v>
+        <v>1.228473005962866</v>
       </c>
       <c r="G9">
-        <v>-0.541297857772413</v>
+        <v>1.265200982722037</v>
       </c>
       <c r="H9">
-        <v>0.1470735274266985</v>
-      </c>
-      <c r="I9">
-        <v>-0.1296176279974082</v>
+        <v>2.091695057109352</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,25 +784,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.5006594565260708</v>
+        <v>0.6848858907743085</v>
       </c>
       <c r="C10">
-        <v>-0.2203015759906016</v>
+        <v>-0.007139493607362657</v>
       </c>
       <c r="D10">
-        <v>-0.3922764338356133</v>
+        <v>0.2323088503952662</v>
       </c>
       <c r="E10">
-        <v>-0.0864138940892818</v>
+        <v>0.2690368271544369</v>
       </c>
       <c r="F10">
-        <v>-0.698743846776568</v>
-      </c>
-      <c r="G10">
-        <v>-0.01037246157745647</v>
-      </c>
-      <c r="H10">
-        <v>-0.2870636170015632</v>
+        <v>1.095530901541752</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +804,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.2803578805354692</v>
+        <v>0.2394483440026288</v>
       </c>
       <c r="C11">
-        <v>0.1083830226904575</v>
+        <v>0.2761763207617995</v>
       </c>
       <c r="D11">
-        <v>0.414245562436789</v>
+        <v>1.102670395149115</v>
       </c>
       <c r="E11">
-        <v>-0.1980843902504972</v>
+        <v>0.4468721850275498</v>
       </c>
       <c r="F11">
-        <v>0.4902869949486143</v>
+        <v>-0.211278054698071</v>
       </c>
       <c r="G11">
-        <v>0.2135958395245076</v>
+        <v>0.187836893153712</v>
+      </c>
+      <c r="H11">
+        <v>0.1264003510321347</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,19 +830,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.1719748578450117</v>
+        <v>0.8264940743873155</v>
       </c>
       <c r="C12">
-        <v>0.1338876819013198</v>
+        <v>0.1706958642657503</v>
       </c>
       <c r="D12">
-        <v>-0.4784422707859664</v>
+        <v>-0.4874543754598706</v>
       </c>
       <c r="E12">
-        <v>0.2099291144131452</v>
+        <v>-0.0883394276080875</v>
       </c>
       <c r="F12">
-        <v>-0.06676204101096155</v>
+        <v>-0.1497759697296649</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,16 +850,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.3058625397463315</v>
+        <v>-0.6581502397256208</v>
       </c>
       <c r="C13">
-        <v>-0.3064674129409547</v>
+        <v>-0.2590352918738378</v>
       </c>
       <c r="D13">
-        <v>0.3819039722581568</v>
+        <v>-0.3204718339954152</v>
       </c>
       <c r="E13">
-        <v>0.1052128168340501</v>
+        <v>-0.7546377691125187</v>
+      </c>
+      <c r="F13">
+        <v>0.2241636229665582</v>
+      </c>
+      <c r="G13">
+        <v>-0.00295228148136796</v>
+      </c>
+      <c r="H13">
+        <v>-0.6364120109074565</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -846,13 +876,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.6123299526872862</v>
+        <v>-0.0614365421215774</v>
       </c>
       <c r="C14">
-        <v>0.07604143251182532</v>
+        <v>-0.4956024772386809</v>
       </c>
       <c r="D14">
-        <v>-0.2006497229122814</v>
+        <v>0.483198914840396</v>
+      </c>
+      <c r="E14">
+        <v>0.2560830103924698</v>
+      </c>
+      <c r="F14">
+        <v>-0.3773767190336187</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -860,10 +896,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.6883713851991116</v>
+        <v>0.9788013920790769</v>
       </c>
       <c r="C15">
-        <v>0.4116802297750048</v>
+        <v>0.7516854876311507</v>
+      </c>
+      <c r="D15">
+        <v>0.1182257582050622</v>
+      </c>
+      <c r="E15">
+        <v>0.5456227168606665</v>
+      </c>
+      <c r="F15">
+        <v>0.3792857621725196</v>
+      </c>
+      <c r="G15">
+        <v>0.5019967786133455</v>
+      </c>
+      <c r="H15">
+        <v>0.5492305151684858</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -871,6 +922,1001 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.6334597294260885</v>
+      </c>
+      <c r="C16">
+        <v>-0.2060627707704842</v>
+      </c>
+      <c r="D16">
+        <v>-0.3723997254586311</v>
+      </c>
+      <c r="E16">
+        <v>-0.2496887090178053</v>
+      </c>
+      <c r="F16">
+        <v>-0.202454972462665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-0.1663369546881469</v>
+      </c>
+      <c r="C17">
+        <v>-0.04362593824732108</v>
+      </c>
+      <c r="D17">
+        <v>0.00360779830781921</v>
+      </c>
+      <c r="E17">
+        <v>-0.3930109332146324</v>
+      </c>
+      <c r="F17">
+        <v>-0.1389588980909123</v>
+      </c>
+      <c r="G17">
+        <v>0.0811654917826603</v>
+      </c>
+      <c r="H17">
+        <v>-0.1546229568040079</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.04723373655514029</v>
+      </c>
+      <c r="C18">
+        <v>-0.3493849949673113</v>
+      </c>
+      <c r="D18">
+        <v>-0.09533295984359125</v>
+      </c>
+      <c r="E18">
+        <v>0.1247914300299814</v>
+      </c>
+      <c r="F18">
+        <v>-0.1109970185566868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.2540520351237201</v>
+      </c>
+      <c r="C19">
+        <v>0.4741764249972927</v>
+      </c>
+      <c r="D19">
+        <v>0.2383879764106245</v>
+      </c>
+      <c r="E19">
+        <v>0.05941521893983981</v>
+      </c>
+      <c r="F19">
+        <v>0.04885468868051879</v>
+      </c>
+      <c r="G19">
+        <v>-0.1588644214776113</v>
+      </c>
+      <c r="H19">
+        <v>0.05834447799729348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.2357884485866682</v>
+      </c>
+      <c r="C20">
+        <v>-0.4147612060574529</v>
+      </c>
+      <c r="D20">
+        <v>-0.4253217363167739</v>
+      </c>
+      <c r="E20">
+        <v>-0.633040846474904</v>
+      </c>
+      <c r="F20">
+        <v>-0.4158319469999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.01056053025932102</v>
+      </c>
+      <c r="C21">
+        <v>-0.2182796404174511</v>
+      </c>
+      <c r="D21">
+        <v>-0.001070740942546333</v>
+      </c>
+      <c r="E21">
+        <v>0.3086154283155151</v>
+      </c>
+      <c r="F21">
+        <v>0.1543112944835111</v>
+      </c>
+      <c r="G21">
+        <v>0.8047377157026943</v>
+      </c>
+      <c r="H21">
+        <v>0.5885726670844852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.2172088994749047</v>
+      </c>
+      <c r="C22">
+        <v>0.5268950687329662</v>
+      </c>
+      <c r="D22">
+        <v>0.3725909349009622</v>
+      </c>
+      <c r="E22">
+        <v>1.023017356120145</v>
+      </c>
+      <c r="F22">
+        <v>0.8068523075019363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.3096861692580615</v>
+      </c>
+      <c r="C23">
+        <v>0.1553820354260574</v>
+      </c>
+      <c r="D23">
+        <v>0.8058084566452406</v>
+      </c>
+      <c r="E23">
+        <v>0.5896434080270315</v>
+      </c>
+      <c r="F23">
+        <v>0.1826142789920752</v>
+      </c>
+      <c r="G23">
+        <v>0.681656496169495</v>
+      </c>
+      <c r="H23">
+        <v>0.5228075830139824</v>
+      </c>
+      <c r="I23">
+        <v>0.5789714039842264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.154304133832004</v>
+      </c>
+      <c r="C24">
+        <v>0.4961222873871792</v>
+      </c>
+      <c r="D24">
+        <v>0.2799572387689701</v>
+      </c>
+      <c r="E24">
+        <v>-0.1270718902659863</v>
+      </c>
+      <c r="F24">
+        <v>0.3719703269114335</v>
+      </c>
+      <c r="G24">
+        <v>0.2131214137559209</v>
+      </c>
+      <c r="H24">
+        <v>0.269285234726165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.6504264212191833</v>
+      </c>
+      <c r="C25">
+        <v>0.4342613726009741</v>
+      </c>
+      <c r="D25">
+        <v>0.02723224356601772</v>
+      </c>
+      <c r="E25">
+        <v>0.5262744607434375</v>
+      </c>
+      <c r="F25">
+        <v>0.3674255475879249</v>
+      </c>
+      <c r="G25">
+        <v>0.423589368558169</v>
+      </c>
+      <c r="H25">
+        <v>2.673392208169561</v>
+      </c>
+      <c r="I25">
+        <v>10.14254253902685</v>
+      </c>
+      <c r="J25">
+        <v>-8.028719261110615</v>
+      </c>
+      <c r="K25">
+        <v>0.1109522858685349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-0.2161650486182091</v>
+      </c>
+      <c r="C26">
+        <v>-0.6231941776531655</v>
+      </c>
+      <c r="D26">
+        <v>-0.1241519604757457</v>
+      </c>
+      <c r="E26">
+        <v>-0.2830008736312583</v>
+      </c>
+      <c r="F26">
+        <v>-0.2268370526610142</v>
+      </c>
+      <c r="G26">
+        <v>2.022965786950378</v>
+      </c>
+      <c r="H26">
+        <v>9.492116117807671</v>
+      </c>
+      <c r="I26">
+        <v>-8.679145682329798</v>
+      </c>
+      <c r="J26">
+        <v>-0.5394741353506483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-0.4070291290349564</v>
+      </c>
+      <c r="C27">
+        <v>0.09201308814246346</v>
+      </c>
+      <c r="D27">
+        <v>-0.06683582501304909</v>
+      </c>
+      <c r="E27">
+        <v>-0.01067200404280504</v>
+      </c>
+      <c r="F27">
+        <v>2.239130835568587</v>
+      </c>
+      <c r="G27">
+        <v>9.708281166425881</v>
+      </c>
+      <c r="H27">
+        <v>-8.462980633711588</v>
+      </c>
+      <c r="I27">
+        <v>-0.3233090867324392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.4990422171774198</v>
+      </c>
+      <c r="C28">
+        <v>0.3401933040219072</v>
+      </c>
+      <c r="D28">
+        <v>0.3963571249921513</v>
+      </c>
+      <c r="E28">
+        <v>2.646159964603544</v>
+      </c>
+      <c r="F28">
+        <v>10.11531029546084</v>
+      </c>
+      <c r="G28">
+        <v>-8.055951504676631</v>
+      </c>
+      <c r="H28">
+        <v>0.08372004230251717</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-0.1588489131555126</v>
+      </c>
+      <c r="C29">
+        <v>-0.1026850921852685</v>
+      </c>
+      <c r="D29">
+        <v>2.147117747426124</v>
+      </c>
+      <c r="E29">
+        <v>9.616268078283417</v>
+      </c>
+      <c r="F29">
+        <v>-8.554993721854052</v>
+      </c>
+      <c r="G29">
+        <v>-0.4153221748749026</v>
+      </c>
+      <c r="H29">
+        <v>1.73224829692449</v>
+      </c>
+      <c r="I29">
+        <v>-1.70778168959884</v>
+      </c>
+      <c r="J29">
+        <v>-1.768955868013041</v>
+      </c>
+      <c r="K29">
+        <v>0.2725000691432133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0.05616382097024405</v>
+      </c>
+      <c r="C30">
+        <v>2.305966660581636</v>
+      </c>
+      <c r="D30">
+        <v>9.77511699143893</v>
+      </c>
+      <c r="E30">
+        <v>-8.396144808698539</v>
+      </c>
+      <c r="F30">
+        <v>-0.2564732617193901</v>
+      </c>
+      <c r="G30">
+        <v>1.891097210080002</v>
+      </c>
+      <c r="H30">
+        <v>-1.548932776443328</v>
+      </c>
+      <c r="I30">
+        <v>-1.610106954857529</v>
+      </c>
+      <c r="J30">
+        <v>0.4313489822987259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>2.249802839611392</v>
+      </c>
+      <c r="C31">
+        <v>9.718953170468685</v>
+      </c>
+      <c r="D31">
+        <v>-8.452308629668783</v>
+      </c>
+      <c r="E31">
+        <v>-0.3126370826896341</v>
+      </c>
+      <c r="F31">
+        <v>1.834933389109758</v>
+      </c>
+      <c r="G31">
+        <v>-1.605096597413572</v>
+      </c>
+      <c r="H31">
+        <v>-1.666270775827773</v>
+      </c>
+      <c r="I31">
+        <v>0.3751851613284818</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>7.469150330857293</v>
+      </c>
+      <c r="C32">
+        <v>-10.70211146928018</v>
+      </c>
+      <c r="D32">
+        <v>-2.562439922301026</v>
+      </c>
+      <c r="E32">
+        <v>-0.4148694505016339</v>
+      </c>
+      <c r="F32">
+        <v>-3.854899437024964</v>
+      </c>
+      <c r="G32">
+        <v>-3.916073615439165</v>
+      </c>
+      <c r="H32">
+        <v>-1.87461767828291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-18.17126180013747</v>
+      </c>
+      <c r="C33">
+        <v>-10.03159025315832</v>
+      </c>
+      <c r="D33">
+        <v>-7.884019781358927</v>
+      </c>
+      <c r="E33">
+        <v>-11.32404976788226</v>
+      </c>
+      <c r="F33">
+        <v>-11.38522394629646</v>
+      </c>
+      <c r="G33">
+        <v>-9.343768009140204</v>
+      </c>
+      <c r="H33">
+        <v>-9.926362546173845</v>
+      </c>
+      <c r="I33">
+        <v>-9.830687505364487</v>
+      </c>
+      <c r="J33">
+        <v>-10.09110654236321</v>
+      </c>
+      <c r="K33">
+        <v>-9.255651546204719</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>8.13967154697915</v>
+      </c>
+      <c r="C34">
+        <v>10.28724201877854</v>
+      </c>
+      <c r="D34">
+        <v>6.847212032255212</v>
+      </c>
+      <c r="E34">
+        <v>6.786037853841011</v>
+      </c>
+      <c r="F34">
+        <v>8.827493790997265</v>
+      </c>
+      <c r="G34">
+        <v>8.244899253963624</v>
+      </c>
+      <c r="H34">
+        <v>8.340574294772981</v>
+      </c>
+      <c r="I34">
+        <v>8.080155257774258</v>
+      </c>
+      <c r="J34">
+        <v>8.91561025393275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>2.147570471799392</v>
+      </c>
+      <c r="C35">
+        <v>-1.292459514723937</v>
+      </c>
+      <c r="D35">
+        <v>-1.353633693138139</v>
+      </c>
+      <c r="E35">
+        <v>0.6878222440181159</v>
+      </c>
+      <c r="F35">
+        <v>0.1052277069844749</v>
+      </c>
+      <c r="G35">
+        <v>0.2009027477938327</v>
+      </c>
+      <c r="H35">
+        <v>-0.0595162892048901</v>
+      </c>
+      <c r="I35">
+        <v>0.7759387069536011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-3.44002998652333</v>
+      </c>
+      <c r="C36">
+        <v>-3.501204164937531</v>
+      </c>
+      <c r="D36">
+        <v>-1.459748227781277</v>
+      </c>
+      <c r="E36">
+        <v>-2.042342764814918</v>
+      </c>
+      <c r="F36">
+        <v>-1.94666772400556</v>
+      </c>
+      <c r="G36">
+        <v>-2.207086761004283</v>
+      </c>
+      <c r="H36">
+        <v>-1.371631764845791</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>-0.06117417841420103</v>
+      </c>
+      <c r="C37">
+        <v>1.980281758742053</v>
+      </c>
+      <c r="D37">
+        <v>1.397687221708412</v>
+      </c>
+      <c r="E37">
+        <v>1.49336226251777</v>
+      </c>
+      <c r="F37">
+        <v>1.232943225519047</v>
+      </c>
+      <c r="G37">
+        <v>2.068398221677539</v>
+      </c>
+      <c r="H37">
+        <v>1.968318861774917</v>
+      </c>
+      <c r="I37">
+        <v>1.614532355695221</v>
+      </c>
+      <c r="J37">
+        <v>1.762709746127666</v>
+      </c>
+      <c r="K37">
+        <v>1.920155735131821</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>2.041455937156254</v>
+      </c>
+      <c r="C38">
+        <v>1.458861400122613</v>
+      </c>
+      <c r="D38">
+        <v>1.554536440931971</v>
+      </c>
+      <c r="E38">
+        <v>1.294117403933248</v>
+      </c>
+      <c r="F38">
+        <v>2.12957240009174</v>
+      </c>
+      <c r="G38">
+        <v>2.029493040189118</v>
+      </c>
+      <c r="H38">
+        <v>1.675706534109422</v>
+      </c>
+      <c r="I38">
+        <v>1.823883924541867</v>
+      </c>
+      <c r="J38">
+        <v>1.981329913546022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>-0.5825945370336409</v>
+      </c>
+      <c r="C39">
+        <v>-0.4869194962242832</v>
+      </c>
+      <c r="D39">
+        <v>-0.747338533223006</v>
+      </c>
+      <c r="E39">
+        <v>0.0881164629354852</v>
+      </c>
+      <c r="F39">
+        <v>-0.01196289696713632</v>
+      </c>
+      <c r="G39">
+        <v>-0.3657494030468326</v>
+      </c>
+      <c r="H39">
+        <v>-0.2175720126143872</v>
+      </c>
+      <c r="I39">
+        <v>-0.06012602361023223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0.09567504080935779</v>
+      </c>
+      <c r="C40">
+        <v>-0.164743996189365</v>
+      </c>
+      <c r="D40">
+        <v>0.6707109999691262</v>
+      </c>
+      <c r="E40">
+        <v>0.5706316400665047</v>
+      </c>
+      <c r="F40">
+        <v>0.2168451339868084</v>
+      </c>
+      <c r="G40">
+        <v>0.3650225244192538</v>
+      </c>
+      <c r="H40">
+        <v>0.5224685134234088</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>-0.2604190369987228</v>
+      </c>
+      <c r="C41">
+        <v>0.5750359591597685</v>
+      </c>
+      <c r="D41">
+        <v>0.4749565992571469</v>
+      </c>
+      <c r="E41">
+        <v>0.1211700931774507</v>
+      </c>
+      <c r="F41">
+        <v>0.269347483609896</v>
+      </c>
+      <c r="G41">
+        <v>0.426793472614051</v>
+      </c>
+      <c r="H41">
+        <v>-0.07386598391201982</v>
+      </c>
+      <c r="I41">
+        <v>0.2064918966234494</v>
+      </c>
+      <c r="J41">
+        <v>0.0345170387784377</v>
+      </c>
+      <c r="K41">
+        <v>0.3403795785247692</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0.8354549961584912</v>
+      </c>
+      <c r="C42">
+        <v>0.7353756362558697</v>
+      </c>
+      <c r="D42">
+        <v>0.3815891301761735</v>
+      </c>
+      <c r="E42">
+        <v>0.5297665206086188</v>
+      </c>
+      <c r="F42">
+        <v>0.6872125096127738</v>
+      </c>
+      <c r="G42">
+        <v>0.186553053086703</v>
+      </c>
+      <c r="H42">
+        <v>0.4669109336221722</v>
+      </c>
+      <c r="I42">
+        <v>0.2949360757771605</v>
+      </c>
+      <c r="J42">
+        <v>0.600798615523492</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>-0.1000793599026215</v>
+      </c>
+      <c r="C43">
+        <v>-0.4538658659823178</v>
+      </c>
+      <c r="D43">
+        <v>-0.3056884755498724</v>
+      </c>
+      <c r="E43">
+        <v>-0.1482424865457174</v>
+      </c>
+      <c r="F43">
+        <v>-0.6489019430717882</v>
+      </c>
+      <c r="G43">
+        <v>-0.3685440625363191</v>
+      </c>
+      <c r="H43">
+        <v>-0.5405189203813308</v>
+      </c>
+      <c r="I43">
+        <v>-0.2346563806349992</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>-0.3537865060796963</v>
+      </c>
+      <c r="C44">
+        <v>-0.2056091156472509</v>
+      </c>
+      <c r="D44">
+        <v>-0.04816312664309591</v>
+      </c>
+      <c r="E44">
+        <v>-0.5488225831691667</v>
+      </c>
+      <c r="F44">
+        <v>-0.2684647026336975</v>
+      </c>
+      <c r="G44">
+        <v>-0.4404395604787092</v>
+      </c>
+      <c r="H44">
+        <v>-0.1345770207323777</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>0.1481773904324453</v>
+      </c>
+      <c r="C45">
+        <v>0.3056233794366003</v>
+      </c>
+      <c r="D45">
+        <v>-0.1950360770894705</v>
+      </c>
+      <c r="E45">
+        <v>0.08532180344599868</v>
+      </c>
+      <c r="F45">
+        <v>-0.08665305439901295</v>
+      </c>
+      <c r="G45">
+        <v>0.2192094853473185</v>
+      </c>
+      <c r="H45">
+        <v>-0.3931204673399676</v>
+      </c>
+      <c r="I45">
+        <v>0.2952509178591439</v>
+      </c>
+      <c r="J45">
+        <v>0.01855976243503714</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>0.157445989004155</v>
+      </c>
+      <c r="C46">
+        <v>-0.3432134675219158</v>
+      </c>
+      <c r="D46">
+        <v>-0.06285558698644665</v>
+      </c>
+      <c r="E46">
+        <v>-0.2348304448314583</v>
+      </c>
+      <c r="F46">
+        <v>0.0710320949148732</v>
+      </c>
+      <c r="G46">
+        <v>-0.541297857772413</v>
+      </c>
+      <c r="H46">
+        <v>0.1470735274266985</v>
+      </c>
+      <c r="I46">
+        <v>-0.1296176279974082</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>-0.5006594565260708</v>
+      </c>
+      <c r="C47">
+        <v>-0.2203015759906016</v>
+      </c>
+      <c r="D47">
+        <v>-0.3922764338356133</v>
+      </c>
+      <c r="E47">
+        <v>-0.0864138940892818</v>
+      </c>
+      <c r="F47">
+        <v>-0.698743846776568</v>
+      </c>
+      <c r="G47">
+        <v>-0.01037246157745647</v>
+      </c>
+      <c r="H47">
+        <v>-0.2870636170015632</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>0.2803578805354692</v>
+      </c>
+      <c r="C48">
+        <v>0.1083830226904575</v>
+      </c>
+      <c r="D48">
+        <v>0.414245562436789</v>
+      </c>
+      <c r="E48">
+        <v>-0.1980843902504972</v>
+      </c>
+      <c r="F48">
+        <v>0.4902869949486143</v>
+      </c>
+      <c r="G48">
+        <v>0.2135958395245076</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>-0.1719748578450117</v>
+      </c>
+      <c r="C49">
+        <v>0.1338876819013198</v>
+      </c>
+      <c r="D49">
+        <v>-0.4784422707859664</v>
+      </c>
+      <c r="E49">
+        <v>0.2099291144131452</v>
+      </c>
+      <c r="F49">
+        <v>-0.06676204101096155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>0.3058625397463315</v>
+      </c>
+      <c r="C50">
+        <v>-0.3064674129409547</v>
+      </c>
+      <c r="D50">
+        <v>0.3819039722581568</v>
+      </c>
+      <c r="E50">
+        <v>0.1052128168340501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>-0.6123299526872862</v>
+      </c>
+      <c r="C51">
+        <v>0.07604143251182532</v>
+      </c>
+      <c r="D51">
+        <v>-0.2006497229122814</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>0.6883713851991116</v>
+      </c>
+      <c r="C52">
+        <v>0.4116802297750048</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
         <v>-0.2766911554241067</v>
       </c>
     </row>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Q0</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>2025-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2025-10-01 00:00:00_diff</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1920,6 +1923,11 @@
         <v>-0.2766911554241067</v>
       </c>
     </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
